--- a/src/main/resources/db/1.xlsx
+++ b/src/main/resources/db/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\GIT\sisfubackend\src\main\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEFF546-EBFB-47E8-8E44-327B4F7D4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195613D-DC0F-4755-907D-77993E651607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="170">
   <si>
     <t>Justificación, explicación de su existencia en el Mundo del Problema</t>
   </si>
@@ -264,9 +264,6 @@
     <t>laboratorio</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>1:N</t>
   </si>
   <si>
@@ -367,12 +364,6 @@
   </si>
   <si>
     <t>¿laboratorio tiene muchas eps?</t>
-  </si>
-  <si>
-    <t>M:N</t>
-  </si>
-  <si>
-    <t>N:M</t>
   </si>
   <si>
     <t>PERSONAL</t>
@@ -693,12 +684,24 @@
   <si>
     <t>se especifica la transformación de las 3 formas nomales</t>
   </si>
+  <si>
+    <t>TIROS</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001, OBUS 105MM M101A, TIRO 001, MANTENIMIENTO 001, BAFLA, CP. CARRILLO ZULETA OSCAR TOMAS, </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,8 +782,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,18 +860,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1319,44 +1317,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1366,8 +1349,23 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1414,24 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,6 +1421,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,23 +1457,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3343,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C14"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3362,198 +3381,274 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="C3" s="61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="61"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="61"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="61"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="66"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="66"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="66"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="66"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="66"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="66"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="66"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="66"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="66"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="66"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="66"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="67" t="s">
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="65"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="65"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="67" t="s">
+      <c r="B27" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C3:C14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3564,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3574,18 +3669,19 @@
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="4"/>
@@ -3599,153 +3695,157 @@
       </c>
       <c r="E3" s="15" t="str">
         <f>B6</f>
-        <v>MUNICION</v>
+        <v>MUNICIÓN</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>B7</f>
         <v>UNIDAD</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="15" t="str">
         <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
+        <v>TIROS</v>
+      </c>
+      <c r="H3" s="15" t="str">
         <f>B9</f>
-        <v>0</v>
+        <v>MANTENIMIENTO</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="H4" s="107" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="12.75" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="F5" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="105" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B7" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="D7" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="E7" s="105" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="F7" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="H7" s="103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="D8" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="F8" s="107" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>74</v>
+      <c r="G8" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="B9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>74</v>
+      <c r="D9" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -3808,72 +3908,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="2:12" ht="44.25" customHeight="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="84"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +3989,7 @@
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1">
       <c r="B5" s="77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>40</v>
@@ -4079,7 +4179,7 @@
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1">
       <c r="B11" s="79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>57</v>
@@ -4115,7 +4215,7 @@
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
       <c r="B12" s="80"/>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="3" t="s">
@@ -4269,13 +4369,13 @@
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1">
       <c r="B17" s="72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>41</v>
@@ -4428,13 +4528,13 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>41</v>
@@ -4556,6 +4656,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:D16"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:L3"/>
@@ -4566,14 +4674,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D11:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J16" r:id="rId1" xr:uid="{9ED0CFC7-005B-4683-8FE2-E7E63AEF0604}"/>
@@ -4607,30 +4707,30 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="46" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4639,16 +4739,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K3" s="16">
         <v>8887205</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>165</v>
+      <c r="L3" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4656,217 +4756,217 @@
         <v>2</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K4" s="16">
         <v>2226405</v>
       </c>
-      <c r="L4" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>162</v>
+      <c r="L4" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="I9" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
+      <c r="A9" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="I9" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="I10" s="59" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="I10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="N10" s="52" t="s">
+      <c r="K10" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="I11" s="16">
         <v>11</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L11" s="16">
         <v>7770674</v>
       </c>
-      <c r="M11" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>156</v>
+      <c r="M11" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
       <c r="I12" s="16">
         <v>22</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L12" s="16">
         <v>7787604</v>
       </c>
-      <c r="M12" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>152</v>
+      <c r="M12" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="A13" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+        <v>143</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+        <v>142</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+        <v>141</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="I18" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
+        <v>138</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="I18" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="I19" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="I19" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+        <v>125</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="I20" s="16">
         <v>1</v>
       </c>
@@ -4879,14 +4979,14 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+        <v>132</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="I21" s="16">
         <v>2</v>
       </c>
@@ -4898,13 +4998,13 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="62"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
       <c r="I22" s="16">
         <v>3</v>
       </c>
@@ -4916,17 +5016,17 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A23" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="A23" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="I23" s="16">
         <v>4</v>
       </c>
@@ -4941,176 +5041,176 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+        <v>143</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="I26" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+        <v>142</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="I26" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="I27" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="I27" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="52" t="s">
+      <c r="K27" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
+        <v>138</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
       <c r="I28" s="16">
         <v>1073</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L28" s="16">
         <v>3135331533</v>
       </c>
-      <c r="M28" s="61" t="s">
-        <v>139</v>
+      <c r="M28" s="55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
+        <v>128</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
       <c r="I29">
         <v>1074</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L29" s="16">
         <v>3215856875</v>
       </c>
-      <c r="M29" s="61" t="s">
-        <v>136</v>
+      <c r="M29" s="55" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+        <v>125</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
+        <v>132</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="60" t="s">
-        <v>134</v>
+      <c r="A32" s="54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="9:14">
-      <c r="I34" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="I34" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
     </row>
     <row r="35" spans="9:14">
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="59" t="s">
+      <c r="K35" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="M35" s="46" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5128,7 +5228,7 @@
         <v>67</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -5165,25 +5265,25 @@
       <c r="N40" s="16"/>
     </row>
     <row r="42" spans="9:14">
-      <c r="I42" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
+      <c r="I42" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
     </row>
     <row r="43" spans="9:14">
-      <c r="I43" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="K43" s="57" t="s">
+      <c r="I43" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="L43" s="52" t="s">
-        <v>129</v>
+      <c r="L43" s="46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="9:14">
@@ -5225,25 +5325,25 @@
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="9:14">
-      <c r="I49" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
+      <c r="I49" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
     </row>
     <row r="50" spans="9:14">
-      <c r="I50" s="56" t="s">
+      <c r="I50" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="K50" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="L50" s="53" t="s">
-        <v>126</v>
+      <c r="J50" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="47" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="9:14">
@@ -5277,21 +5377,21 @@
       </c>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
+      <c r="I58" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
     </row>
     <row r="59" spans="9:14">
-      <c r="I59" s="53" t="s">
+      <c r="I59" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="52" t="s">
+      <c r="J59" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="52" t="s">
-        <v>124</v>
+      <c r="K59" s="46" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="9:14">
@@ -5299,10 +5399,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="9:14">
@@ -5310,25 +5410,25 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I34:M34"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I58:K58"/>
     <mergeCell ref="B23:G31"/>
     <mergeCell ref="A9:F12"/>
     <mergeCell ref="B13:G22"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I34:M34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" xr:uid="{2AEE64C5-4C39-423F-9B8B-B00C18A04932}"/>
@@ -5371,37 +5471,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="86" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -5410,76 +5510,76 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="86" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="102" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="98"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -5487,28 +5587,28 @@
       <c r="B7" s="93"/>
       <c r="C7" s="96"/>
       <c r="D7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="J7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -5516,61 +5616,61 @@
       <c r="B8" s="94"/>
       <c r="C8" s="97"/>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="J8" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="7"/>
     </row>
@@ -5578,61 +5678,61 @@
       <c r="B10" s="94"/>
       <c r="C10" s="97"/>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7"/>
     </row>
@@ -5640,28 +5740,28 @@
       <c r="B12" s="93"/>
       <c r="C12" s="96"/>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -5669,33 +5769,39 @@
       <c r="B13" s="94"/>
       <c r="C13" s="97"/>
       <c r="D13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -5707,12 +5813,6 @@
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/db/1.xlsx
+++ b/src/main/resources/db/1.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\GIT\sisfubackend\src\main\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195613D-DC0F-4755-907D-77993E651607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68AD060-6B0F-488D-85A5-A08771D897B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
     <sheet name="Relaciones" sheetId="3" r:id="rId2"/>
-    <sheet name="Atributos y restricciones" sheetId="2" r:id="rId3"/>
-    <sheet name="Normalización" sheetId="8" r:id="rId4"/>
-    <sheet name="Descripción de las relaciones" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId3"/>
+    <sheet name="Atributos y restricciones" sheetId="2" r:id="rId4"/>
+    <sheet name="Normalización" sheetId="8" r:id="rId5"/>
+    <sheet name="Descripción de las relaciones" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$E$10:$I$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="199">
   <si>
     <t>Justificación, explicación de su existencia en el Mundo del Problema</t>
   </si>
@@ -130,9 +134,6 @@
   </si>
   <si>
     <t>Descripción de atributos y sus restricciones naturales (Tipo de Dato) y restricciones adicionales, Dominios (Lista de Valores, Rangos de Valores y Restricciones generales)</t>
-  </si>
-  <si>
-    <t>Matriz de Relaciones</t>
   </si>
   <si>
     <t>Descripción ampliada de las relaciones determinadas en la Matriz de Relaciones (Análisis de Roles, Cardinalidad/Opcionalidad, Grado, Cualidad de identificación, Transferibilidad)</t>
@@ -696,12 +697,102 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>Artillero_Certificacion</t>
+  </si>
+  <si>
+    <t>CERTIFICACIONES</t>
+  </si>
+  <si>
+    <t>Artillero_Curso</t>
+  </si>
+  <si>
+    <t>CURSO</t>
+  </si>
+  <si>
+    <t>Artillero_Despliegues</t>
+  </si>
+  <si>
+    <t>DESPLIEGUES</t>
+  </si>
+  <si>
+    <t>Artillero_Experiencia</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA</t>
+  </si>
+  <si>
+    <t>Artillero_Instructor</t>
+  </si>
+  <si>
+    <t>INTRUCTOR</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTOS</t>
+  </si>
+  <si>
+    <t>Artillero_Mantenimientos</t>
+  </si>
+  <si>
+    <t>Nro</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>BAACA2</t>
+  </si>
+  <si>
+    <t>Baada2</t>
+  </si>
+  <si>
+    <t>baada2</t>
+  </si>
+  <si>
+    <t>bafla</t>
+  </si>
+  <si>
+    <t>tiro</t>
+  </si>
+  <si>
+    <t>Tipo Granada</t>
+  </si>
+  <si>
+    <t>Lote</t>
+  </si>
+  <si>
+    <t>Nro serialSistema</t>
+  </si>
+  <si>
+    <t>Municion_Sistema</t>
+  </si>
+  <si>
+    <t>Municion_Unidad</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Tiros_personal</t>
+  </si>
+  <si>
+    <t>Tiros_Sistema</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,15 +873,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +998,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE692D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1337,6 +1469,78 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1350,9 +1554,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,45 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,15 +1680,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3382,7 +3544,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>0</v>
@@ -3392,242 +3554,242 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="85"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B15" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="84"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="61"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="61"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="61"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="61"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="59" t="s">
+      <c r="B27" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="60"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="84"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="84"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="60"/>
+      <c r="B39" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="84"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3657,229 +3819,1769 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="15" t="str">
-        <f>B4</f>
+    <row r="1" spans="1:23" ht="44.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="15" t="str">
+        <f>A2</f>
         <v>PERSONAL</v>
       </c>
-      <c r="D3" s="15" t="str">
-        <f>B5</f>
+      <c r="C1" s="15" t="str">
+        <f>A9</f>
+        <v>CERTIFICACIONES</v>
+      </c>
+      <c r="D1" s="15" t="str">
+        <f>A10</f>
+        <v>CURSO</v>
+      </c>
+      <c r="E1" s="15" t="str">
+        <f>A11</f>
+        <v>DESPLIEGUES</v>
+      </c>
+      <c r="F1" s="15" t="str">
+        <f>A12</f>
+        <v>EXPERIENCIA</v>
+      </c>
+      <c r="G1" s="15" t="str">
+        <f>A13</f>
+        <v>INTRUCTOR</v>
+      </c>
+      <c r="H1" s="15" t="str">
+        <f>A14</f>
+        <v>MANTENIMIENTOS</v>
+      </c>
+      <c r="I1" s="15" t="str">
+        <f>A3</f>
+        <v>Artillero_Certificacion</v>
+      </c>
+      <c r="J1" s="15" t="str">
+        <f>A4</f>
+        <v>Artillero_Curso</v>
+      </c>
+      <c r="K1" s="15" t="str">
+        <f>A5</f>
+        <v>Artillero_Despliegues</v>
+      </c>
+      <c r="L1" s="15" t="str">
+        <f>A6</f>
+        <v>Artillero_Experiencia</v>
+      </c>
+      <c r="M1" s="15" t="str">
+        <f>A7</f>
+        <v>Artillero_Instructor</v>
+      </c>
+      <c r="N1" s="15" t="str">
+        <f>A8</f>
+        <v>Artillero_Mantenimientos</v>
+      </c>
+      <c r="O1" s="66" t="str">
+        <f>A15</f>
         <v>SISTEMA</v>
       </c>
-      <c r="E3" s="15" t="str">
-        <f>B6</f>
+      <c r="P1" s="66" t="str">
+        <f>A16</f>
         <v>MUNICIÓN</v>
       </c>
-      <c r="F3" s="15" t="str">
-        <f>B7</f>
+      <c r="Q1" s="66" t="str">
+        <f>A17</f>
         <v>UNIDAD</v>
       </c>
-      <c r="G3" s="15" t="str">
-        <f>B8</f>
+      <c r="R1" s="66" t="str">
+        <f>A18</f>
+        <v>Municion_Sistema</v>
+      </c>
+      <c r="S1" s="66" t="str">
+        <f>A19</f>
+        <v>Municion_Unidad</v>
+      </c>
+      <c r="T1" s="66" t="str">
+        <f>A20</f>
+        <v>Tiros_personal</v>
+      </c>
+      <c r="U1" s="66" t="str">
+        <f>A21</f>
+        <v>Tiros_Sistema</v>
+      </c>
+      <c r="V1" s="66" t="str">
+        <f>A22</f>
         <v>TIROS</v>
       </c>
-      <c r="H3" s="15" t="str">
-        <f>B9</f>
+      <c r="W1" s="66" t="str">
+        <f>A23</f>
         <v>MANTENIMIENTO</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+    <row r="2" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W3" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W6" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V7" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V8" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W8" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S9" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W9" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U10" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V10" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V11" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V13" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T14" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U14" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V14" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A15" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="105" t="s">
+      <c r="B15" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="58"/>
+      <c r="T15" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="W15" s="80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A16" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="R16" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U16" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V16" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="W16" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A17" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="R17" s="58"/>
+      <c r="S17" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U17" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V17" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" s="78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A18" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="109" t="s">
+      <c r="P18" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="103" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="14" t="s">
+      <c r="Q18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T18" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U18" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V18" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W18" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A19" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="58"/>
+      <c r="P19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S19" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T19" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U19" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V19" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W19" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A20" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V20" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A21" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="N21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="R21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="T21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U21" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V21" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A22" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A23" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="43"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="43"/>
+      <c r="B23" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="R23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="S23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="T23" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U23" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="43"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3888,6 +5590,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB58E7D-333C-4502-A963-B035D9DD361A}">
+  <dimension ref="D10:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:12">
+      <c r="E10" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12">
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="5:12">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>22</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="5:12">
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>11</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="5:12">
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>33</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="5:12">
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="5:12">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E10:I15" xr:uid="{EAB58E7D-333C-4502-A963-B035D9DD361A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L25"/>
   <sheetViews>
@@ -3908,72 +5769,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:12" ht="44.25" customHeight="1">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="87" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3988,119 +5849,119 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B5" s="77" t="s">
-        <v>108</v>
+      <c r="B5" s="100" t="s">
+        <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="9">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="10">
         <v>1</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B6" s="77"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="93"/>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9">
         <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B7" s="77"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="70"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="93"/>
       <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="9">
         <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="10">
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B8" s="77"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="70"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="93"/>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="9">
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="10">
         <v>1</v>
@@ -4109,95 +5970,95 @@
         <v>3135331533</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B9" s="77"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="70"/>
+        <v>37</v>
+      </c>
+      <c r="D9" s="93"/>
       <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G9" s="9">
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="10">
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B10" s="78"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="99"/>
       <c r="E10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="20">
         <v>50</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="28">
         <v>1</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" customHeight="1">
+      <c r="B11" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B11" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>57</v>
+      <c r="D11" s="105" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="33">
         <v>15</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="34">
         <v>1</v>
@@ -4206,122 +6067,122 @@
         <v>1073995281</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="80"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="74"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="97"/>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="9">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B13" s="80"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="74"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="97"/>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="9">
         <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="10">
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="80"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="74"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="97"/>
       <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="9">
         <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="10">
         <v>1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B15" s="80"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="74"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="97"/>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9">
         <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="10">
         <v>1</v>
@@ -4330,95 +6191,95 @@
         <v>3135331533</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="81"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="75"/>
+        <v>38</v>
+      </c>
+      <c r="D16" s="98"/>
       <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G16" s="9">
         <v>50</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="10">
         <v>1</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B17" s="72" t="s">
-        <v>117</v>
+      <c r="B17" s="95" t="s">
+        <v>116</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="9">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="72"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="74"/>
+        <v>56</v>
+      </c>
+      <c r="D18" s="97"/>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9">
         <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="10">
         <v>1</v>
@@ -4427,126 +6288,126 @@
         <v>1073995281</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B19" s="72"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="10">
         <v>1</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B20" s="72"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="74"/>
+        <v>65</v>
+      </c>
+      <c r="D20" s="97"/>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="9">
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="10">
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B21" s="73"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="75"/>
+        <v>64</v>
+      </c>
+      <c r="D21" s="98"/>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="9">
         <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="10">
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="L21" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="68" t="s">
-        <v>112</v>
+      <c r="B22" s="91" t="s">
+        <v>111</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="9">
         <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="10">
         <v>1</v>
@@ -4555,29 +6416,29 @@
         <v>1073995281</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B23" s="68"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="70"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="93"/>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="9">
         <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="10">
         <v>1</v>
@@ -4586,60 +6447,60 @@
         <v>1073995281</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="68"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="D24" s="93"/>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="10">
         <v>1</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1">
-      <c r="B25" s="69"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="71"/>
+        <v>63</v>
+      </c>
+      <c r="D25" s="94"/>
       <c r="E25" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="39">
         <v>10</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="40">
         <v>1</v>
@@ -4648,10 +6509,10 @@
         <v>3135331533</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +6545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D849C-CAE6-493F-A789-97161FC21A05}">
   <dimension ref="A1:N61"/>
   <sheetViews>
@@ -4707,31 +6568,31 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
+        <v>164</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:14">
       <c r="I2" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4739,16 +6600,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K3" s="16">
         <v>8887205</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4756,217 +6617,217 @@
         <v>2</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="16">
         <v>2226405</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="I9" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
+      <c r="A9" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="I9" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="I10" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
       <c r="I11" s="16">
         <v>11</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="16">
         <v>7770674</v>
       </c>
       <c r="M11" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N11" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
       <c r="I12" s="16">
         <v>22</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" s="16">
         <v>7787604</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="B13" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+        <v>142</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+        <v>141</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
+        <v>140</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="I18" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+        <v>137</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="I18" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+        <v>127</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
       <c r="I19" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+        <v>124</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
       <c r="I20" s="16">
         <v>1</v>
       </c>
@@ -4979,14 +6840,14 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
+        <v>131</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
       <c r="I21" s="16">
         <v>2</v>
       </c>
@@ -4999,12 +6860,12 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="56"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
       <c r="I22" s="16">
         <v>3</v>
       </c>
@@ -5017,16 +6878,16 @@
     </row>
     <row r="23" spans="1:13" ht="14.4" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="B23" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
       <c r="I23" s="16">
         <v>4</v>
       </c>
@@ -5039,179 +6900,179 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+        <v>142</v>
+      </c>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="I26" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="I26" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+        <v>140</v>
+      </c>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
       <c r="I27" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
+        <v>137</v>
+      </c>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
       <c r="I28" s="16">
         <v>1073</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="16">
         <v>3135331533</v>
       </c>
       <c r="M28" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
+        <v>127</v>
+      </c>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
       <c r="I29">
         <v>1074</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" s="16">
         <v>3215856875</v>
       </c>
       <c r="M29" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
+        <v>124</v>
+      </c>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
+        <v>131</v>
+      </c>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="9:14">
-      <c r="I34" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="I34" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
     </row>
     <row r="35" spans="9:14">
       <c r="I35" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="9:14">
@@ -5225,10 +7086,10 @@
         <v>11</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -5265,25 +7126,25 @@
       <c r="N40" s="16"/>
     </row>
     <row r="42" spans="9:14">
-      <c r="I42" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
+      <c r="I42" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
     </row>
     <row r="43" spans="9:14">
       <c r="I43" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J43" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L43" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="9:14">
@@ -5325,25 +7186,25 @@
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="9:14">
-      <c r="I49" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
+      <c r="I49" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
     </row>
     <row r="50" spans="9:14">
       <c r="I50" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L50" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="9:14">
@@ -5377,21 +7238,21 @@
       </c>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
+      <c r="I58" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
     </row>
     <row r="59" spans="9:14">
       <c r="I59" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J59" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K59" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="9:14">
@@ -5399,10 +7260,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="9:14">
@@ -5410,10 +7271,10 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +7309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L13"/>
   <sheetViews>
@@ -5471,37 +7332,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="109" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -5510,287 +7371,287 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="109" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="90" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="116"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="117"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="93"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="94"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="92" t="s">
+      <c r="D9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="94"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>110</v>
+      <c r="B11" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="116"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="93"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="94"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7"/>
     </row>

--- a/src/main/resources/db/1.xlsx
+++ b/src/main/resources/db/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\GIT\sisfubackend\src\main\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68AD060-6B0F-488D-85A5-A08771D897B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043787C-99C4-49D1-B249-97CE551A4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1553,6 +1553,51 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,51 +1613,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,6 +1622,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1639,24 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3793,24 +3793,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C3:C14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3824,7 +3824,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="R16" sqref="R16"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5769,72 +5769,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="44.25" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="102" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5849,13 +5849,13 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="95" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="88" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -5884,11 +5884,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B6" s="100"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
@@ -5915,11 +5915,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B7" s="100"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
@@ -5946,11 +5946,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B8" s="100"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
@@ -5977,11 +5977,11 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B9" s="100"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
@@ -6008,11 +6008,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B10" s="101"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="99"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="27" t="s">
         <v>42</v>
       </c>
@@ -6039,13 +6039,13 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="97" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="100" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="32" t="s">
@@ -6074,11 +6074,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
@@ -6105,11 +6105,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
@@ -6136,11 +6136,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="97"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6167,11 +6167,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="97"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
@@ -6198,11 +6198,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="98"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
@@ -6229,13 +6229,13 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="90" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="92" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -6264,11 +6264,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="95"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
@@ -6295,11 +6295,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B19" s="95"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
@@ -6326,11 +6326,11 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B20" s="95"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="3" t="s">
         <v>41</v>
       </c>
@@ -6357,11 +6357,11 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B21" s="96"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
@@ -6388,13 +6388,13 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="86" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="88" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -6423,11 +6423,11 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B23" s="91"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
@@ -6454,11 +6454,11 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="91"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
@@ -6485,11 +6485,11 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1">
-      <c r="B25" s="92"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="38" t="s">
         <v>40</v>
       </c>
@@ -6517,14 +6517,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D11:D16"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:L3"/>
@@ -6535,6 +6527,14 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J16" r:id="rId1" xr:uid="{9ED0CFC7-005B-4683-8FE2-E7E63AEF0604}"/>
@@ -7279,17 +7279,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I34:M34"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I58:K58"/>
     <mergeCell ref="B23:G31"/>
     <mergeCell ref="A9:F12"/>
     <mergeCell ref="B13:G22"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I34:M34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" xr:uid="{2AEE64C5-4C39-423F-9B8B-B00C18A04932}"/>
@@ -7332,37 +7332,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="115" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -7371,51 +7371,51 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="115" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="113" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="112" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -7445,8 +7445,8 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="116"/>
-      <c r="C7" s="119"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="8" t="s">
         <v>78</v>
       </c>
@@ -7474,8 +7474,8 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="117"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="8" t="s">
         <v>78</v>
       </c>
@@ -7503,10 +7503,10 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="112" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -7536,8 +7536,8 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="117"/>
-      <c r="C10" s="120"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="8" t="s">
         <v>78</v>
       </c>
@@ -7565,10 +7565,10 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -7598,8 +7598,8 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="116"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="8" t="s">
         <v>78</v>
       </c>
@@ -7627,8 +7627,8 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="117"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="8" t="s">
         <v>78</v>
       </c>
@@ -7657,12 +7657,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -7674,6 +7668,12 @@
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/db/1.xlsx
+++ b/src/main/resources/db/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\GIT\sisfubackend\src\main\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043787C-99C4-49D1-B249-97CE551A4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BCF08-D40E-4588-92BC-B1AD3DEFD700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1553,6 +1553,21 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,21 +1613,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,6 +1622,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,24 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3793,24 +3793,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C3:C14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3822,9 +3822,9 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5769,72 +5769,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:12" ht="44.25" customHeight="1">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="87" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="102"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5849,13 +5849,13 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="100" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="93" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -5884,11 +5884,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B6" s="95"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
@@ -5915,11 +5915,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B7" s="95"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="88"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
@@ -5946,11 +5946,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B8" s="95"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
@@ -5977,11 +5977,11 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B9" s="95"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
@@ -6008,11 +6008,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B10" s="96"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="27" t="s">
         <v>42</v>
       </c>
@@ -6039,13 +6039,13 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="102" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="105" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="32" t="s">
@@ -6074,11 +6074,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="98"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
@@ -6105,11 +6105,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B13" s="98"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
@@ -6136,11 +6136,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="98"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6167,11 +6167,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B15" s="98"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
@@ -6198,11 +6198,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="99"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
@@ -6229,13 +6229,13 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="95" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="97" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -6264,11 +6264,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="90"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
@@ -6295,11 +6295,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B19" s="90"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
@@ -6326,11 +6326,11 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B20" s="90"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="3" t="s">
         <v>41</v>
       </c>
@@ -6357,11 +6357,11 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B21" s="91"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
@@ -6388,13 +6388,13 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="91" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="93" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -6423,11 +6423,11 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B23" s="86"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
@@ -6454,11 +6454,11 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="86"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
@@ -6485,11 +6485,11 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1">
-      <c r="B25" s="87"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="38" t="s">
         <v>40</v>
       </c>
@@ -6517,6 +6517,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:D16"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:L3"/>
@@ -6527,14 +6535,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D11:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J16" r:id="rId1" xr:uid="{9ED0CFC7-005B-4683-8FE2-E7E63AEF0604}"/>
@@ -7279,17 +7279,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I34:M34"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I58:K58"/>
     <mergeCell ref="B23:G31"/>
     <mergeCell ref="A9:F12"/>
     <mergeCell ref="B13:G22"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I34:M34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" xr:uid="{2AEE64C5-4C39-423F-9B8B-B00C18A04932}"/>
@@ -7332,37 +7332,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="109" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -7371,51 +7371,51 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="109" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="119" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="118" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -7445,8 +7445,8 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="110"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="8" t="s">
         <v>78</v>
       </c>
@@ -7474,8 +7474,8 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="111"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="8" t="s">
         <v>78</v>
       </c>
@@ -7503,10 +7503,10 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="118" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -7536,8 +7536,8 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="111"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="8" t="s">
         <v>78</v>
       </c>
@@ -7565,10 +7565,10 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="118" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -7598,8 +7598,8 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="110"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="8" t="s">
         <v>78</v>
       </c>
@@ -7627,8 +7627,8 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="111"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="8" t="s">
         <v>78</v>
       </c>
@@ -7657,6 +7657,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -7668,12 +7674,6 @@
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
